--- a/electricity_records.xlsx
+++ b/electricity_records.xlsx
@@ -398,10 +398,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>79.636276</v>
+        <v>78.636276</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -434,7 +434,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>45396.73111111111</v>
@@ -444,39 +444,25 @@
       <c r="A4" t="n">
         <v>79.385476</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2024-04-15 17:36:09</t>
-        </is>
+      <c r="B4" s="1" t="n">
+        <v>45396.7334375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>79.385476</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2024-04-15 17:39:21</t>
-        </is>
+      <c r="B5" s="1" t="n">
+        <v>45397.73565972222</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>79.385476</v>
+        <v>78.068776</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-04-15 17:40:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>79.385476</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2024-04-15 17:43:40</t>
+          <t>2024-04-15 19:48:54</t>
         </is>
       </c>
     </row>
